--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.030221.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.030221.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -597,12 +597,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1169,12 +1169,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1245,12 +1245,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1287,12 +1287,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1455,12 +1455,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1623,12 +1623,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2333,12 +2333,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2417,12 +2417,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3161,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3203,12 +3203,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3329,12 +3329,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3905,12 +3905,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4241,12 +4241,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4893,12 +4893,12 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5045,12 +5045,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5121,12 +5121,12 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5537,12 +5537,12 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5655,12 +5655,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6269,12 +6269,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6307,12 +6307,12 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6387,12 +6387,12 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6501,12 +6501,12 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6741,12 +6741,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7327,12 +7327,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7479,12 +7479,12 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7593,12 +7593,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8247,12 +8247,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8285,12 +8285,12 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8479,12 +8479,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -8517,12 +8517,12 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8555,12 +8555,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8669,12 +8669,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8977,12 +8977,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9019,12 +9019,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9629,12 +9629,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9713,12 +9713,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10071,12 +10071,12 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10739,12 +10739,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10781,12 +10781,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10907,12 +10907,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11551,12 +11551,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12015,12 +12015,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12247,12 +12247,12 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12457,12 +12457,12 @@
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12533,12 +12533,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12731,12 +12731,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13013,12 +13013,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13379,12 +13379,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14111,12 +14111,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -14149,12 +14149,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14653,12 +14653,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14939,12 +14939,12 @@
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15015,12 +15015,12 @@
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15709,12 +15709,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15747,12 +15747,12 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15907,12 +15907,12 @@
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16417,12 +16417,12 @@
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16493,12 +16493,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16959,12 +16959,12 @@
       <c r="H409" t="inlineStr"/>
       <c r="I409" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17169,12 +17169,12 @@
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17539,12 +17539,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -17615,12 +17615,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17867,12 +17867,12 @@
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18267,12 +18267,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18477,12 +18477,12 @@
       <c r="H446" t="inlineStr"/>
       <c r="I446" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18515,12 +18515,12 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18641,12 +18641,12 @@
       <c r="H450" t="inlineStr"/>
       <c r="I450" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18679,12 +18679,12 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18805,12 +18805,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18843,12 +18843,12 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18927,12 +18927,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19095,12 +19095,12 @@
       <c r="H461" t="inlineStr"/>
       <c r="I461" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19637,12 +19637,12 @@
       <c r="H474" t="inlineStr"/>
       <c r="I474" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19847,12 +19847,12 @@
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19973,12 +19973,12 @@
       <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20015,12 +20015,12 @@
       <c r="H483" t="inlineStr"/>
       <c r="I483" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20267,12 +20267,12 @@
       <c r="H489" t="inlineStr"/>
       <c r="I489" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20309,12 +20309,12 @@
       <c r="H490" t="inlineStr"/>
       <c r="I490" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20385,12 +20385,12 @@
       <c r="H492" t="inlineStr"/>
       <c r="I492" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20637,12 +20637,12 @@
       <c r="H498" t="inlineStr"/>
       <c r="I498" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20805,12 +20805,12 @@
       <c r="H502" t="inlineStr"/>
       <c r="I502" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20889,12 +20889,12 @@
       <c r="H504" t="inlineStr"/>
       <c r="I504" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
